--- a/src/test_files/318线路列表_.xlsx
+++ b/src/test_files/318线路列表_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Py_Word_Code\fconversion\src\test_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF6486E4-0AF6-4F42-AF82-865E32C31E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView xWindow="2328" yWindow="3012" windowWidth="17280" windowHeight="8964" xr2:uid="{27A2172B-56A7-4E6D-971E-55AF9347B4DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="301">
   <si>
     <t>POI点坐标</t>
   </si>
@@ -38,9 +57,6 @@
   </si>
   <si>
     <t>线路景点音频讲解</t>
-  </si>
-  <si>
-    <t>__index_level_0__</t>
   </si>
   <si>
     <t>103.43166,30.18153</t>
@@ -925,361 +941,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1287,251 +975,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1540,68 +986,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1617,7 +1019,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1629,7 +1031,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1643,12 +1045,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1676,14 +1078,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1711,6 +1130,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1852,55 +1288,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EBEBE7-49FE-4A52-AB78-D57BA2E0E3C5}">
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="23.8888888888889" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1911,11 +1344,11 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>609.5</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2">
-        <v>609.5</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1923,16 +1356,10 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
-      </c>
-      <c r="J2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1943,11 +1370,11 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>725</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3">
-        <v>725</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1955,71 +1382,62 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>941.5</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4">
-        <v>941.5</v>
-      </c>
       <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5">
+        <v>2124.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5">
-        <v>2124.5</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -2030,11 +1448,11 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>2989</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
-      </c>
-      <c r="F6">
-        <v>2989</v>
       </c>
       <c r="G6" t="s">
         <v>36</v>
@@ -2042,39 +1460,33 @@
       <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>5</v>
-      </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>4273</v>
+      </c>
+      <c r="F7" t="s">
         <v>41</v>
       </c>
-      <c r="F7">
-        <v>4273</v>
-      </c>
       <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -2085,25 +1497,22 @@
       <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>4273</v>
+      </c>
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="F8">
-        <v>4273</v>
-      </c>
       <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
@@ -2114,11 +1523,11 @@
       <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>4034</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
-      </c>
-      <c r="F9">
-        <v>4034</v>
       </c>
       <c r="G9" t="s">
         <v>53</v>
@@ -2126,216 +1535,192 @@
       <c r="H9" t="s">
         <v>54</v>
       </c>
-      <c r="I9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>8</v>
-      </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>4273</v>
+      </c>
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="F10">
-        <v>4273</v>
-      </c>
       <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>9</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>3559</v>
+      </c>
+      <c r="F11" t="s">
         <v>59</v>
       </c>
-      <c r="F11">
-        <v>3559</v>
-      </c>
       <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
         <v>60</v>
       </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>10</v>
-      </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>3904</v>
+      </c>
+      <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="F12">
-        <v>3904</v>
-      </c>
       <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>65</v>
       </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>11</v>
-      </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>3904</v>
+      </c>
+      <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="F13">
-        <v>3904</v>
-      </c>
       <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>12</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
       </c>
       <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>4353</v>
+      </c>
+      <c r="F14" t="s">
         <v>69</v>
       </c>
-      <c r="F14">
-        <v>4353</v>
-      </c>
       <c r="G14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>70</v>
       </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>13</v>
-      </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>4511</v>
+      </c>
+      <c r="F15" t="s">
         <v>73</v>
       </c>
-      <c r="F15">
-        <v>4511</v>
-      </c>
       <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
         <v>74</v>
       </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>14</v>
-      </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>4353</v>
+      </c>
+      <c r="F16" t="s">
         <v>69</v>
       </c>
-      <c r="F16">
-        <v>4353</v>
-      </c>
       <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>15</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
       </c>
       <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>78</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>4306.5</v>
+      </c>
+      <c r="F17" t="s">
         <v>79</v>
-      </c>
-      <c r="F17">
-        <v>4306.5</v>
       </c>
       <c r="G17" t="s">
         <v>80</v>
@@ -2343,42 +1728,36 @@
       <c r="H17" t="s">
         <v>81</v>
       </c>
-      <c r="I17" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>16</v>
-      </c>
       <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>84</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>3927</v>
+      </c>
+      <c r="F18" t="s">
         <v>85</v>
       </c>
-      <c r="F18">
-        <v>3927</v>
-      </c>
       <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
         <v>86</v>
       </c>
-      <c r="H18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
@@ -2389,248 +1768,221 @@
       <c r="D19" t="s">
         <v>90</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>3927</v>
+      </c>
+      <c r="F19" t="s">
         <v>91</v>
       </c>
-      <c r="F19">
-        <v>3927</v>
-      </c>
       <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
         <v>92</v>
       </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>18</v>
-      </c>
       <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
         <v>94</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>3934</v>
+      </c>
+      <c r="F20" t="s">
         <v>95</v>
       </c>
-      <c r="F20">
-        <v>3934</v>
-      </c>
       <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s">
         <v>96</v>
       </c>
-      <c r="H20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>19</v>
-      </c>
       <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
         <v>98</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>99</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>4575.5</v>
+      </c>
+      <c r="F21" t="s">
         <v>100</v>
       </c>
-      <c r="F21">
-        <v>4575.5</v>
-      </c>
       <c r="G21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>101</v>
       </c>
-      <c r="H21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22">
-        <v>20</v>
-      </c>
       <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
         <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
       </c>
       <c r="D22" t="s">
         <v>103</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>4575.5</v>
+      </c>
+      <c r="F22" t="s">
         <v>104</v>
       </c>
-      <c r="F22">
-        <v>4575.5</v>
-      </c>
       <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
         <v>105</v>
       </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23">
-        <v>21</v>
-      </c>
       <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
         <v>107</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
       </c>
       <c r="D23" t="s">
         <v>108</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>4664.5</v>
+      </c>
+      <c r="F23" t="s">
         <v>109</v>
       </c>
-      <c r="F23">
-        <v>4664.5</v>
-      </c>
       <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
         <v>110</v>
       </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24">
-        <v>22</v>
-      </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
         <v>108</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>4664.5</v>
+      </c>
+      <c r="F24" t="s">
         <v>109</v>
       </c>
-      <c r="F24">
-        <v>4664.5</v>
-      </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>23</v>
-      </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>4575.5</v>
+      </c>
+      <c r="F25" t="s">
         <v>100</v>
       </c>
-      <c r="F25">
-        <v>4575.5</v>
-      </c>
       <c r="G25" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26">
-        <v>24</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>114</v>
       </c>
       <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
         <v>115</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
       </c>
       <c r="D26" t="s">
         <v>116</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>2550</v>
+      </c>
+      <c r="F26" t="s">
         <v>117</v>
       </c>
-      <c r="F26">
-        <v>2550</v>
-      </c>
       <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
         <v>118</v>
       </c>
-      <c r="H26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>25</v>
-      </c>
       <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
         <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
       </c>
       <c r="D27" t="s">
         <v>121</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>3413.5</v>
+      </c>
+      <c r="F27" t="s">
         <v>122</v>
       </c>
-      <c r="F27">
-        <v>3413.5</v>
-      </c>
       <c r="G27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>123</v>
-      </c>
-      <c r="H27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28">
-        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>124</v>
@@ -2641,95 +1993,86 @@
       <c r="D28" t="s">
         <v>126</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>2721</v>
+      </c>
+      <c r="F28" t="s">
         <v>127</v>
       </c>
-      <c r="F28">
-        <v>2721</v>
-      </c>
       <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
         <v>128</v>
       </c>
-      <c r="H28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>27</v>
-      </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
         <v>121</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29">
+        <v>3413.5</v>
+      </c>
+      <c r="F29" t="s">
         <v>122</v>
       </c>
-      <c r="F29">
-        <v>3413.5</v>
-      </c>
       <c r="G29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30">
-        <v>28</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>130</v>
       </c>
       <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
         <v>131</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
       </c>
       <c r="D30" t="s">
         <v>132</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30">
+        <v>4245</v>
+      </c>
+      <c r="F30" t="s">
         <v>133</v>
       </c>
-      <c r="F30">
-        <v>4245</v>
-      </c>
       <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
         <v>134</v>
       </c>
-      <c r="H30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31">
-        <v>29</v>
-      </c>
       <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
         <v>136</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
       </c>
       <c r="D31" t="s">
         <v>137</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31">
+        <v>3989</v>
+      </c>
+      <c r="F31" t="s">
         <v>138</v>
-      </c>
-      <c r="F31">
-        <v>3989</v>
       </c>
       <c r="G31" t="s">
         <v>139</v>
@@ -2737,587 +2080,524 @@
       <c r="H31" t="s">
         <v>140</v>
       </c>
-      <c r="I31" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>30</v>
-      </c>
       <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
         <v>142</v>
       </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="E32">
+        <v>4230</v>
+      </c>
+      <c r="F32" t="s">
         <v>143</v>
       </c>
-      <c r="F32">
-        <v>4230</v>
-      </c>
       <c r="G32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>144</v>
       </c>
-      <c r="H32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
-        <v>31</v>
-      </c>
       <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" t="s">
         <v>145</v>
       </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="E33">
+        <v>4372</v>
+      </c>
+      <c r="F33" t="s">
         <v>146</v>
       </c>
-      <c r="F33">
-        <v>4372</v>
-      </c>
       <c r="G33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" t="s">
         <v>147</v>
       </c>
-      <c r="H33" t="s">
-        <v>140</v>
-      </c>
-      <c r="I33" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
-        <v>32</v>
-      </c>
       <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
         <v>149</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
       </c>
       <c r="D34" t="s">
         <v>150</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34">
+        <v>4279</v>
+      </c>
+      <c r="F34" t="s">
         <v>151</v>
       </c>
-      <c r="F34">
-        <v>4279</v>
-      </c>
       <c r="G34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
         <v>152</v>
       </c>
-      <c r="H34" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>33</v>
-      </c>
       <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35">
+        <v>4230</v>
+      </c>
+      <c r="F35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>154</v>
       </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35">
-        <v>4230</v>
-      </c>
-      <c r="G35" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>34</v>
-      </c>
       <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
         <v>155</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>156</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36">
+        <v>3593</v>
+      </c>
+      <c r="F36" t="s">
         <v>157</v>
       </c>
-      <c r="F36">
-        <v>3593</v>
-      </c>
       <c r="G36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>158</v>
       </c>
-      <c r="H36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
-        <v>35</v>
-      </c>
       <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
         <v>159</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
       </c>
       <c r="D37" t="s">
         <v>160</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37">
+        <v>3593</v>
+      </c>
+      <c r="F37" t="s">
         <v>161</v>
       </c>
-      <c r="F37">
-        <v>3593</v>
-      </c>
       <c r="G37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" t="s">
         <v>162</v>
       </c>
-      <c r="H37" t="s">
-        <v>140</v>
-      </c>
-      <c r="I37" t="s">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <v>36</v>
-      </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
         <v>156</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38">
+        <v>3593</v>
+      </c>
+      <c r="F38" t="s">
         <v>157</v>
       </c>
-      <c r="F38">
-        <v>3593</v>
-      </c>
       <c r="G38" t="s">
-        <v>158</v>
-      </c>
-      <c r="H38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
-        <v>37</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>164</v>
       </c>
       <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
         <v>165</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
       </c>
       <c r="D39" t="s">
         <v>166</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39">
+        <v>5086.5</v>
+      </c>
+      <c r="F39" t="s">
         <v>167</v>
       </c>
-      <c r="F39">
-        <v>5086.5</v>
-      </c>
       <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
         <v>168</v>
       </c>
-      <c r="H39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" t="s">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40">
-        <v>38</v>
-      </c>
       <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
         <v>170</v>
-      </c>
-      <c r="C40" t="s">
-        <v>17</v>
       </c>
       <c r="D40" t="s">
         <v>171</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40">
+        <v>3800</v>
+      </c>
+      <c r="F40" t="s">
         <v>172</v>
       </c>
-      <c r="F40">
-        <v>3800</v>
-      </c>
       <c r="G40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" t="s">
         <v>173</v>
       </c>
-      <c r="H40" t="s">
-        <v>140</v>
-      </c>
-      <c r="I40" t="s">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>39</v>
-      </c>
       <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
         <v>175</v>
-      </c>
-      <c r="C41" t="s">
-        <v>17</v>
       </c>
       <c r="D41" t="s">
         <v>176</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41">
+        <v>4462.5</v>
+      </c>
+      <c r="F41" t="s">
         <v>177</v>
       </c>
-      <c r="F41">
-        <v>4462.5</v>
-      </c>
       <c r="G41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>178</v>
       </c>
-      <c r="H41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
-        <v>40</v>
-      </c>
       <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
         <v>179</v>
-      </c>
-      <c r="C42" t="s">
-        <v>17</v>
       </c>
       <c r="D42" t="s">
         <v>180</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42">
+        <v>4395</v>
+      </c>
+      <c r="F42" t="s">
         <v>181</v>
       </c>
-      <c r="F42">
-        <v>4395</v>
-      </c>
       <c r="G42" t="s">
+        <v>139</v>
+      </c>
+      <c r="H42" t="s">
         <v>182</v>
       </c>
-      <c r="H42" t="s">
-        <v>140</v>
-      </c>
-      <c r="I42" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
-        <v>41</v>
-      </c>
       <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
         <v>184</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
       </c>
       <c r="D43" t="s">
         <v>185</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43">
+        <v>4462.5</v>
+      </c>
+      <c r="F43" t="s">
         <v>186</v>
       </c>
-      <c r="F43">
-        <v>4462.5</v>
-      </c>
       <c r="G43" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" t="s">
         <v>187</v>
       </c>
-      <c r="H43" t="s">
-        <v>140</v>
-      </c>
-      <c r="I43" t="s">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
-        <v>42</v>
-      </c>
       <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
         <v>189</v>
-      </c>
-      <c r="C44" t="s">
-        <v>17</v>
       </c>
       <c r="D44" t="s">
         <v>190</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44">
+        <v>4774.5</v>
+      </c>
+      <c r="F44" t="s">
         <v>191</v>
       </c>
-      <c r="F44">
-        <v>4774.5</v>
-      </c>
       <c r="G44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" t="s">
         <v>192</v>
       </c>
-      <c r="H44" t="s">
-        <v>140</v>
-      </c>
-      <c r="I44" t="s">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
-        <v>43</v>
-      </c>
       <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
         <v>194</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
       </c>
       <c r="D45" t="s">
         <v>195</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45">
+        <v>3181.5</v>
+      </c>
+      <c r="F45" t="s">
         <v>196</v>
       </c>
-      <c r="F45">
-        <v>3181.5</v>
-      </c>
       <c r="G45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" t="s">
         <v>197</v>
       </c>
-      <c r="H45" t="s">
-        <v>140</v>
-      </c>
-      <c r="I45" t="s">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>44</v>
-      </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
         <v>176</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46">
+        <v>4462.5</v>
+      </c>
+      <c r="F46" t="s">
         <v>177</v>
       </c>
-      <c r="F46">
-        <v>4462.5</v>
-      </c>
       <c r="G46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47">
-        <v>45</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>199</v>
       </c>
       <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
         <v>200</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>201</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47">
+        <v>3529</v>
+      </c>
+      <c r="F47" t="s">
         <v>202</v>
       </c>
-      <c r="F47">
-        <v>3529</v>
-      </c>
       <c r="G47" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" t="s">
         <v>203</v>
       </c>
-      <c r="H47" t="s">
-        <v>140</v>
-      </c>
-      <c r="I47" t="s">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>46</v>
-      </c>
       <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
         <v>205</v>
-      </c>
-      <c r="C48" t="s">
-        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>206</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48">
+        <v>4334</v>
+      </c>
+      <c r="F48" t="s">
         <v>207</v>
       </c>
-      <c r="F48">
-        <v>4334</v>
-      </c>
       <c r="G48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>208</v>
       </c>
-      <c r="H48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
-        <v>47</v>
-      </c>
       <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
         <v>209</v>
-      </c>
-      <c r="C49" t="s">
-        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>210</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49">
+        <v>4517</v>
+      </c>
+      <c r="F49" t="s">
         <v>211</v>
       </c>
-      <c r="F49">
-        <v>4517</v>
-      </c>
       <c r="G49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" t="s">
         <v>212</v>
       </c>
-      <c r="H49" t="s">
-        <v>140</v>
-      </c>
-      <c r="I49" t="s">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50">
-        <v>48</v>
-      </c>
       <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
         <v>214</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>215</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50">
+        <v>4005.5</v>
+      </c>
+      <c r="F50" t="s">
         <v>216</v>
       </c>
-      <c r="F50">
-        <v>4005.5</v>
-      </c>
       <c r="G50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H50" t="s">
         <v>217</v>
       </c>
-      <c r="H50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I50" t="s">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
-        <v>49</v>
-      </c>
       <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
         <v>219</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
       </c>
       <c r="D51" t="s">
         <v>220</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51">
+        <v>4527</v>
+      </c>
+      <c r="F51" t="s">
         <v>221</v>
       </c>
-      <c r="F51">
-        <v>4527</v>
-      </c>
       <c r="G51" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" t="s">
         <v>222</v>
       </c>
-      <c r="H51" t="s">
-        <v>140</v>
-      </c>
-      <c r="I51" t="s">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52">
-        <v>50</v>
-      </c>
       <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
         <v>224</v>
-      </c>
-      <c r="C52" t="s">
-        <v>33</v>
       </c>
       <c r="D52" t="s">
         <v>225</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52">
+        <v>4526.5</v>
+      </c>
+      <c r="F52" t="s">
         <v>226</v>
-      </c>
-      <c r="F52">
-        <v>4526.5</v>
       </c>
       <c r="G52" t="s">
         <v>227</v>
@@ -3325,337 +2605,298 @@
       <c r="H52" t="s">
         <v>228</v>
       </c>
-      <c r="I52" t="s">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53">
-        <v>51</v>
-      </c>
       <c r="B53" t="s">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="D53" t="s">
         <v>206</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53">
+        <v>4334</v>
+      </c>
+      <c r="F53" t="s">
         <v>207</v>
       </c>
-      <c r="F53">
-        <v>4334</v>
-      </c>
       <c r="G53" t="s">
-        <v>208</v>
-      </c>
-      <c r="H53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54">
-        <v>52</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>230</v>
       </c>
       <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
         <v>231</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
       </c>
       <c r="D54" t="s">
         <v>232</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54">
+        <v>3256</v>
+      </c>
+      <c r="F54" t="s">
         <v>233</v>
       </c>
-      <c r="F54">
-        <v>3256</v>
-      </c>
       <c r="G54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>234</v>
       </c>
-      <c r="H54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55">
-        <v>53</v>
-      </c>
       <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" t="s">
         <v>235</v>
       </c>
-      <c r="C55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" t="s">
-        <v>232</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="E55">
+        <v>3200</v>
+      </c>
+      <c r="F55" t="s">
         <v>236</v>
       </c>
-      <c r="F55">
-        <v>3200</v>
-      </c>
       <c r="G55" t="s">
+        <v>139</v>
+      </c>
+      <c r="H55" t="s">
         <v>237</v>
       </c>
-      <c r="H55" t="s">
-        <v>140</v>
-      </c>
-      <c r="I55" t="s">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56">
-        <v>54</v>
-      </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="D56" t="s">
         <v>232</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56">
+        <v>3256</v>
+      </c>
+      <c r="F56" t="s">
         <v>233</v>
       </c>
-      <c r="F56">
-        <v>3256</v>
-      </c>
       <c r="G56" t="s">
-        <v>234</v>
-      </c>
-      <c r="H56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57">
-        <v>55</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>239</v>
       </c>
       <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
         <v>240</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
       </c>
       <c r="D57" t="s">
         <v>241</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57">
+        <v>3381</v>
+      </c>
+      <c r="F57" t="s">
         <v>242</v>
       </c>
-      <c r="F57">
-        <v>3381</v>
-      </c>
       <c r="G57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>243</v>
       </c>
-      <c r="H57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
-        <v>56</v>
-      </c>
       <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
         <v>244</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
       </c>
       <c r="D58" t="s">
         <v>245</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58">
+        <v>2888.5</v>
+      </c>
+      <c r="F58" t="s">
         <v>246</v>
       </c>
-      <c r="F58">
-        <v>2888.5</v>
-      </c>
       <c r="G58" t="s">
+        <v>139</v>
+      </c>
+      <c r="H58" t="s">
         <v>247</v>
       </c>
-      <c r="H58" t="s">
-        <v>140</v>
-      </c>
-      <c r="I58" t="s">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59">
-        <v>57</v>
-      </c>
       <c r="B59" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="D59" t="s">
         <v>241</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59">
+        <v>3381</v>
+      </c>
+      <c r="F59" t="s">
         <v>242</v>
       </c>
-      <c r="F59">
-        <v>3381</v>
-      </c>
       <c r="G59" t="s">
-        <v>243</v>
-      </c>
-      <c r="H59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60">
-        <v>58</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>249</v>
       </c>
       <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
         <v>250</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
       </c>
       <c r="D60" t="s">
         <v>251</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60">
+        <v>2839</v>
+      </c>
+      <c r="F60" t="s">
         <v>252</v>
       </c>
-      <c r="F60">
-        <v>2839</v>
-      </c>
       <c r="G60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" t="s">
         <v>253</v>
       </c>
-      <c r="H60" t="s">
-        <v>140</v>
-      </c>
-      <c r="I60" t="s">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61">
-        <v>59</v>
-      </c>
       <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
         <v>255</v>
-      </c>
-      <c r="C61" t="s">
-        <v>17</v>
       </c>
       <c r="D61" t="s">
         <v>256</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61">
+        <v>2619</v>
+      </c>
+      <c r="F61" t="s">
         <v>257</v>
       </c>
-      <c r="F61">
-        <v>2619</v>
-      </c>
       <c r="G61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>258</v>
       </c>
-      <c r="H61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62">
-        <v>60</v>
-      </c>
       <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
         <v>259</v>
-      </c>
-      <c r="C62" t="s">
-        <v>17</v>
       </c>
       <c r="D62" t="s">
         <v>260</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62">
+        <v>2405</v>
+      </c>
+      <c r="F62" t="s">
         <v>261</v>
       </c>
-      <c r="F62">
-        <v>2405</v>
-      </c>
       <c r="G62" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62" t="s">
         <v>262</v>
       </c>
-      <c r="H62" t="s">
-        <v>140</v>
-      </c>
-      <c r="I62" t="s">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63">
-        <v>61</v>
-      </c>
       <c r="B63" t="s">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="D63" t="s">
         <v>256</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63">
+        <v>2619</v>
+      </c>
+      <c r="F63" t="s">
         <v>257</v>
       </c>
-      <c r="F63">
-        <v>2619</v>
-      </c>
       <c r="G63" t="s">
-        <v>258</v>
-      </c>
-      <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64">
-        <v>62</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>264</v>
       </c>
       <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
         <v>265</v>
-      </c>
-      <c r="C64" t="s">
-        <v>17</v>
       </c>
       <c r="D64" t="s">
         <v>266</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64">
+        <v>4292.5</v>
+      </c>
+      <c r="F64" t="s">
         <v>267</v>
       </c>
-      <c r="F64">
-        <v>4292.5</v>
-      </c>
       <c r="G64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>268</v>
-      </c>
-      <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65">
-        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>269</v>
@@ -3666,25 +2907,22 @@
       <c r="D65" t="s">
         <v>271</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65">
+        <v>3510</v>
+      </c>
+      <c r="F65" t="s">
         <v>272</v>
       </c>
-      <c r="F65">
-        <v>3510</v>
-      </c>
       <c r="G65" t="s">
+        <v>227</v>
+      </c>
+      <c r="H65" t="s">
         <v>273</v>
       </c>
-      <c r="H65" t="s">
-        <v>228</v>
-      </c>
-      <c r="I65" t="s">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66">
-        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>275</v>
@@ -3695,25 +2933,22 @@
       <c r="D66" t="s">
         <v>277</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66">
+        <v>3510</v>
+      </c>
+      <c r="F66" t="s">
         <v>278</v>
       </c>
-      <c r="F66">
-        <v>3510</v>
-      </c>
       <c r="G66" t="s">
+        <v>227</v>
+      </c>
+      <c r="H66" t="s">
         <v>279</v>
       </c>
-      <c r="H66" t="s">
-        <v>228</v>
-      </c>
-      <c r="I66" t="s">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67">
-        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>281</v>
@@ -3724,137 +2959,122 @@
       <c r="D67" t="s">
         <v>283</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67">
+        <v>4292.5</v>
+      </c>
+      <c r="F67" t="s">
         <v>284</v>
       </c>
-      <c r="F67">
-        <v>4292.5</v>
-      </c>
       <c r="G67" t="s">
+        <v>227</v>
+      </c>
+      <c r="H67" t="s">
         <v>285</v>
       </c>
-      <c r="H67" t="s">
-        <v>228</v>
-      </c>
-      <c r="I67" t="s">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68">
-        <v>66</v>
-      </c>
       <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
         <v>287</v>
-      </c>
-      <c r="C68" t="s">
-        <v>17</v>
       </c>
       <c r="D68" t="s">
         <v>288</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68">
+        <v>4521</v>
+      </c>
+      <c r="F68" t="s">
         <v>289</v>
       </c>
-      <c r="F68">
-        <v>4521</v>
-      </c>
       <c r="G68" t="s">
+        <v>227</v>
+      </c>
+      <c r="H68" t="s">
         <v>290</v>
       </c>
-      <c r="H68" t="s">
-        <v>228</v>
-      </c>
-      <c r="I68" t="s">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69">
-        <v>67</v>
-      </c>
       <c r="B69" t="s">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>265</v>
       </c>
       <c r="D69" t="s">
         <v>266</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69">
+        <v>4292.5</v>
+      </c>
+      <c r="F69" t="s">
         <v>267</v>
       </c>
-      <c r="F69">
-        <v>4292.5</v>
-      </c>
       <c r="G69" t="s">
-        <v>268</v>
-      </c>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70">
-        <v>68</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>292</v>
       </c>
       <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
         <v>293</v>
-      </c>
-      <c r="C70" t="s">
-        <v>17</v>
       </c>
       <c r="D70" t="s">
         <v>294</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70">
+        <v>2996</v>
+      </c>
+      <c r="F70" t="s">
+        <v>227</v>
+      </c>
+      <c r="G70" t="s">
+        <v>227</v>
+      </c>
+      <c r="H70" t="s">
         <v>295</v>
       </c>
-      <c r="F70">
-        <v>2996</v>
-      </c>
-      <c r="G70" t="s">
-        <v>228</v>
-      </c>
-      <c r="H70" t="s">
-        <v>228</v>
-      </c>
-      <c r="I70" t="s">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71">
-        <v>69</v>
-      </c>
       <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
         <v>297</v>
-      </c>
-      <c r="C71" t="s">
-        <v>17</v>
       </c>
       <c r="D71" t="s">
         <v>298</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71">
+        <v>3657</v>
+      </c>
+      <c r="F71" t="s">
         <v>299</v>
       </c>
-      <c r="F71">
-        <v>3657</v>
-      </c>
       <c r="G71" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H71" t="s">
         <v>300</v>
       </c>
-      <c r="I71" t="s">
-        <v>301</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>